--- a/build/assets/image_dimensions.xlsx
+++ b/build/assets/image_dimensions.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,85 +544,85 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Heifer-6.jpg</t>
+          <t>Frisco-15.tif</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5504</v>
+        <v>8244</v>
       </c>
       <c r="C9" t="n">
-        <v>8256</v>
+        <v>5496</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>high rise-11.jpg</t>
+          <t>Frisco-43.tif</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4959</v>
+        <v>8256</v>
       </c>
       <c r="C10" t="n">
-        <v>7439</v>
+        <v>5504</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>i-CPnVpmd-4K.jpg</t>
+          <t>Frisco-45.tif</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3840</v>
+        <v>7737</v>
       </c>
       <c r="C11" t="n">
-        <v>2563</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>i-hmPbjtG-4K.jpg</t>
+          <t>Frisco-58.tif</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3840</v>
+        <v>8256</v>
       </c>
       <c r="C12" t="n">
-        <v>2563</v>
+        <v>5504</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>i-PVzgVvr-X3.jpg</t>
+          <t>Heifer-6.jpg</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1600</v>
+        <v>5504</v>
       </c>
       <c r="C13" t="n">
-        <v>1068</v>
+        <v>8256</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>i-thqsFzg-X3.jpg</t>
+          <t>high rise-11.jpg</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1600</v>
+        <v>4959</v>
       </c>
       <c r="C14" t="n">
-        <v>1068</v>
+        <v>7439</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>i-WNkLZFq-4K.jpg</t>
+          <t>i-CPnVpmd-4K.jpg</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -635,20 +635,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Paris Paul Cezanne-22.jpg</t>
+          <t>i-hmPbjtG-4K.jpg</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4077</v>
+        <v>3840</v>
       </c>
       <c r="C16" t="n">
-        <v>4077</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Paris-7-X3.jpg</t>
+          <t>i-PVzgVvr-X3.jpg</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -661,130 +661,247 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Preston-1-X2.jpg</t>
+          <t>i-thqsFzg-X3.jpg</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1280</v>
+        <v>1600</v>
       </c>
       <c r="C18" t="n">
-        <v>854</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Spring Mountain-8.jpg</t>
+          <t>i-WNkLZFq-4K.jpg</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3191</v>
+        <v>3840</v>
       </c>
       <c r="C19" t="n">
-        <v>2127</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>St Paul-53.jpg</t>
+          <t>image1.jpg</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5504</v>
+        <v>6032</v>
       </c>
       <c r="C20" t="n">
-        <v>8256</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Wells Fargo Fitness Center -11-X3.jpg</t>
+          <t>IMG_9994.JPG</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1600</v>
+        <v>3448</v>
       </c>
       <c r="C21" t="n">
-        <v>1068</v>
+        <v>5168</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Wells Fargo Fitness Center -7-X3.jpg</t>
+          <t>logo.png</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1600</v>
+        <v>460</v>
       </c>
       <c r="C22" t="n">
-        <v>1068</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Westover Hills -1.jpg</t>
+          <t>me.jpg</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6192</v>
+        <v>3448</v>
       </c>
       <c r="C23" t="n">
-        <v>4128</v>
+        <v>5168</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>WF Glendale final - jpg-1.jpg</t>
+          <t>Paris Paul Cezanne-22.jpg</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5076</v>
+        <v>4077</v>
       </c>
       <c r="C24" t="n">
-        <v>3384</v>
+        <v>4077</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>WF Glendale final - jpg-22.jpg</t>
+          <t>Paris-7-X3.jpg</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5504</v>
+        <v>1600</v>
       </c>
       <c r="C25" t="n">
-        <v>5504</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>WF Glendale final - jpg-7.jpg</t>
+          <t>Preston-1-X2.jpg</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7362</v>
+        <v>1280</v>
       </c>
       <c r="C26" t="n">
-        <v>4908</v>
+        <v>854</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>Spring Mountain-8.jpg</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>3191</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>St Paul-53.jpg</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>5504</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8256</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Wells Fargo Fitness Center -11-X3.jpg</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Wells Fargo Fitness Center -7-X3.jpg</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Westover Hills -1.jpg</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6192</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>WF Glendale final - jpg-1.jpg</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>5076</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>WF Glendale final - jpg-22.jpg</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>5504</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5504</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>WF Glendale final - jpg-7.jpg</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>7362</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4908</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>WF Sendero Marketplace Exterior -7.tif</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>8256</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5504</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>_DSC5194-Edit.jpg</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B36" t="n">
         <v>6032</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C36" t="n">
         <v>4021</v>
       </c>
     </row>
